--- a/GenXServiceEngagementCenterApplication/AnalyticalReports/Ticket escalation rate by channel.xlsx
+++ b/GenXServiceEngagementCenterApplication/AnalyticalReports/Ticket escalation rate by channel.xlsx
@@ -106,7 +106,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
